--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169063.0957616804</v>
+        <v>166857.0023552425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>240.9271759295598</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208645</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866723</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.96979448040025</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.36558293807623</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154863</v>
+        <v>65.95263903154861</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015529</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.035360425222</v>
@@ -795,7 +795,7 @@
         <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>164.3386674793419</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>146.8170663556618</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.6800649483538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>160.5462349668875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>301.368379212125</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>219.7476702878886</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>234.1147273484601</v>
+        <v>132.0122761605778</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>137.6226750441173</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.6795171151347</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.7417699688413</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>142.1313580769813</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>42.32069823344334</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>50.36860283745174</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>104.2871089987313</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>84.69473660442779</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>99.13931750950117</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>33.48557584626223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>143.1575708948377</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>53.57325324602711</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>109.9896305583492</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2882401841244</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>114.4600416653583</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>158.3578317920613</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>84.69473660442833</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056128</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849618</v>
@@ -3272,7 +3272,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
         <v>371.3806294556657</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
         <v>334.2356843924233</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3427,22 +3427,22 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>59.63248521678337</v>
       </c>
       <c r="E37" t="n">
-        <v>53.8950568941251</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400154</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3481,7 +3481,7 @@
         <v>250.7164219195671</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
         <v>251.0275820505452</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,7 +3509,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556657</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.25091867356139</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I40" t="n">
-        <v>60.8570041237923</v>
+        <v>60.85700412379237</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400154</v>
+        <v>3.80962297250926</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849613</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D41" t="n">
         <v>319.1876253346372</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880169</v>
+        <v>6.081513486880183</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>77.25091867356117</v>
       </c>
       <c r="G43" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>21.30636284646522</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
         <v>250.7164219195671</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.08151348688007</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212997</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700081</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125819</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>103.6335810102687</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>56.43806022150208</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379222</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400143</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1652.822144425608</v>
+        <v>1632.206651417363</v>
       </c>
       <c r="C2" t="n">
-        <v>1283.859627485196</v>
+        <v>1263.244134476951</v>
       </c>
       <c r="D2" t="n">
-        <v>1040.498843717964</v>
+        <v>1263.244134476951</v>
       </c>
       <c r="E2" t="n">
-        <v>1040.498843717964</v>
+        <v>877.4558818787071</v>
       </c>
       <c r="F2" t="n">
-        <v>629.5129389283567</v>
+        <v>466.4699770890996</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="J2" t="n">
         <v>143.3613405244778</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293488</v>
+        <v>406.6417666293489</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024613</v>
+        <v>785.5410436024615</v>
       </c>
       <c r="M2" t="n">
         <v>1223.746040782767</v>
@@ -4346,34 +4346,34 @@
         <v>2015.88545667174</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110671</v>
+        <v>2286.722307110672</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.88774275081</v>
+        <v>2342.254609045086</v>
       </c>
       <c r="S2" t="n">
-        <v>2412.88774275081</v>
+        <v>2342.254609045086</v>
       </c>
       <c r="T2" t="n">
-        <v>2412.88774275081</v>
+        <v>2342.254609045086</v>
       </c>
       <c r="U2" t="n">
-        <v>2412.88774275081</v>
+        <v>2088.472950552596</v>
       </c>
       <c r="V2" t="n">
-        <v>2412.88774275081</v>
+        <v>2018.806491481485</v>
       </c>
       <c r="W2" t="n">
-        <v>2412.88774275081</v>
+        <v>2018.806491481485</v>
       </c>
       <c r="X2" t="n">
-        <v>2039.42198448973</v>
+        <v>2018.806491481485</v>
       </c>
       <c r="Y2" t="n">
-        <v>2039.42198448973</v>
+        <v>2018.806491481485</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.3524755586716</v>
+        <v>988.8055048397986</v>
       </c>
       <c r="C3" t="n">
         <v>814.3524755586716</v>
@@ -4404,16 +4404,16 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="J3" t="n">
-        <v>70.84789150582756</v>
+        <v>70.84789150582768</v>
       </c>
       <c r="K3" t="n">
-        <v>305.0597375842207</v>
+        <v>305.059737584221</v>
       </c>
       <c r="L3" t="n">
-        <v>681.3908644604634</v>
+        <v>681.3908644604637</v>
       </c>
       <c r="M3" t="n">
         <v>1172.530760772834</v>
@@ -4425,34 +4425,34 @@
         <v>2101.518461710701</v>
       </c>
       <c r="P3" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841562</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634267</v>
+        <v>2252.245964543516</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972568</v>
+        <v>2052.831682881817</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648775</v>
+        <v>1824.653314558024</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417033</v>
+        <v>1658.654660538487</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688831</v>
+        <v>1404.417303810285</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483298</v>
+        <v>1196.565803604753</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.1863977183446</v>
+        <v>988.8055048397986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.1720262247618</v>
+        <v>482.7407116719258</v>
       </c>
       <c r="C4" t="n">
-        <v>512.1720262247618</v>
+        <v>482.7407116719258</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1720262247618</v>
+        <v>482.7407116719258</v>
       </c>
       <c r="E4" t="n">
-        <v>364.2589326423686</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="F4" t="n">
-        <v>217.3689851444583</v>
+        <v>187.9376705916223</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501619</v>
+        <v>187.9376705916223</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501619</v>
+        <v>187.9376705916223</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460989</v>
+        <v>91.87143294460995</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384339</v>
+        <v>203.208359838434</v>
       </c>
       <c r="M4" t="n">
-        <v>330.986661753428</v>
+        <v>330.9866617534282</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692842</v>
+        <v>461.1612976692845</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984513</v>
+        <v>565.3823477984516</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978465</v>
+        <v>482.7407116719258</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978465</v>
+        <v>482.7407116719258</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978465</v>
+        <v>482.7407116719258</v>
       </c>
       <c r="Y4" t="n">
-        <v>512.1720262247618</v>
+        <v>482.7407116719258</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1482.324363426885</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1482.324363426885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1096.536110828641</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>685.5502060390334</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487029</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487029</v>
+        <v>1851.286880367297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810048</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810048</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810048</v>
+        <v>506.1616404812942</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.543549400789</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.581032460377</v>
+        <v>1116.984198029372</v>
       </c>
       <c r="D8" t="n">
-        <v>1035.581032460377</v>
+        <v>758.7184994226211</v>
       </c>
       <c r="E8" t="n">
-        <v>1035.581032460377</v>
+        <v>758.7184994226211</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.543549400789</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>589.1161811315683</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>361.80799380017</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>361.80799380017</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>361.80799380017</v>
       </c>
       <c r="W10" t="n">
-        <v>622.3920982315509</v>
+        <v>361.80799380017</v>
       </c>
       <c r="X10" t="n">
-        <v>394.4025473335336</v>
+        <v>361.80799380017</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.4025473335336</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,19 +5039,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.069814334827</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C13" t="n">
-        <v>637.1336314069201</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D13" t="n">
-        <v>487.0169919945844</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="F13" t="n">
         <v>339.1038984121913</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1621.090553570943</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1331.987686696586</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.240599230347</v>
+        <v>1077.303198490699</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.823429193386</v>
+        <v>787.8860284537387</v>
       </c>
       <c r="X13" t="n">
-        <v>1149.833878295369</v>
+        <v>559.8964775557214</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.0412991518384</v>
+        <v>339.1038984121913</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5285,13 +5285,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,28 +5367,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7264155301116</v>
+        <v>307.2453974100825</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>138.3092144821756</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>138.3092144821756</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>138.3092144821756</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>138.3092144821756</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>138.3092144821756</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1905.466089501216</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.781601295329</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.364431258369</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.374880360351</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.374880360351</v>
+        <v>488.8938622403223</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
         <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195856</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>498.9312815832559</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>680.5797464134956</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,13 +5750,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622689</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
         <v>2432.390822294613</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.1835515663148</v>
+        <v>492.7083461157122</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663148</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D22" t="n">
-        <v>558.066912153979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715859</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.965681607862</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X22" t="n">
-        <v>928.9761307098449</v>
+        <v>895.149390089482</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.1835515663148</v>
+        <v>674.3568109459519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.301436796792</v>
+        <v>388.5878045036223</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866384</v>
+        <v>722.4071781934688</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,10 +6066,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.1008243407836</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C25" t="n">
-        <v>240.1646414128767</v>
+        <v>854.4007383484567</v>
       </c>
       <c r="D25" t="n">
-        <v>240.1646414128767</v>
+        <v>704.2840989361209</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>556.3710053537278</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558174</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1680.46245345602</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>1425.777965250133</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145534</v>
+        <v>1425.777965250133</v>
       </c>
       <c r="X25" t="n">
-        <v>811.5418683145534</v>
+        <v>1425.777965250133</v>
       </c>
       <c r="Y25" t="n">
-        <v>590.7492891710233</v>
+        <v>1204.985386106603</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>243.4741280307875</v>
+        <v>410.7144041584435</v>
       </c>
       <c r="C28" t="n">
-        <v>243.4741280307875</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1653.556945003905</v>
       </c>
       <c r="U28" t="n">
-        <v>1197.213802001892</v>
+        <v>1364.454078129548</v>
       </c>
       <c r="V28" t="n">
-        <v>942.5293137960052</v>
+        <v>1109.769589923661</v>
       </c>
       <c r="W28" t="n">
-        <v>653.1121437590446</v>
+        <v>820.3524198867005</v>
       </c>
       <c r="X28" t="n">
-        <v>425.1225928610272</v>
+        <v>592.3628689886832</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.1225928610272</v>
+        <v>592.3628689886832</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,16 +6464,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.1500838984424</v>
+        <v>550.3214813792649</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2139009705355</v>
+        <v>550.3214813792649</v>
       </c>
       <c r="D31" t="n">
-        <v>525.0972615581998</v>
+        <v>550.3214813792649</v>
       </c>
       <c r="E31" t="n">
-        <v>525.0972615581998</v>
+        <v>402.4083877968718</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>255.5184402989614</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6634,19 +6634,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
         <v>1542.890966501056</v>
@@ -6655,16 +6655,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="X31" t="n">
-        <v>1025.798548728682</v>
+        <v>771.1140605227951</v>
       </c>
       <c r="Y31" t="n">
-        <v>1025.798548728682</v>
+        <v>550.3214813792649</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
         <v>2005.253839749764</v>
@@ -6683,37 +6683,37 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866391</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139994</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
         <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196469</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
         <v>4405.689038432984</v>
@@ -6734,16 +6734,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6880,13 +6880,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.962769867859</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437385</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
@@ -6898,7 +6898,7 @@
         <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221641</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
         <v>277.2094992786341</v>
@@ -6920,52 +6920,52 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.676415452969</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386984</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285448</v>
+        <v>928.187796773998</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.8026539819</v>
+        <v>1379.222010022407</v>
       </c>
       <c r="M35" t="n">
-        <v>2450.352956811728</v>
+        <v>1912.753914694332</v>
       </c>
       <c r="N35" t="n">
-        <v>2997.131773870511</v>
+        <v>2459.532731753114</v>
       </c>
       <c r="O35" t="n">
-        <v>3500.104244749848</v>
+        <v>3339.497382082569</v>
       </c>
       <c r="P35" t="n">
-        <v>3894.878611107026</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q35" t="n">
-        <v>4143.164972862708</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
         <v>3767.029658702265</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285977</v>
+        <v>959.6170717285981</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474707</v>
+        <v>785.1640424474712</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862196</v>
+        <v>636.22963278622</v>
       </c>
       <c r="E36" t="n">
-        <v>476.992177780764</v>
+        <v>476.9921777807645</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076491</v>
+        <v>330.4576198076495</v>
       </c>
       <c r="G36" t="n">
         <v>194.0945196402678</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781352</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702901</v>
+        <v>178.2626031702899</v>
       </c>
       <c r="K36" t="n">
         <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633029</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N36" t="n">
         <v>1704.024331240073</v>
@@ -7044,16 +7044,16 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
-        <v>2260.901519544681</v>
+        <v>2260.901519544682</v>
       </c>
       <c r="U36" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
-        <v>1797.681564447354</v>
+        <v>1797.681564447355</v>
       </c>
       <c r="W36" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X36" t="n">
         <v>1335.59270751362</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.0895204481667</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="C37" t="n">
-        <v>668.0072933647505</v>
+        <v>449.1767610033532</v>
       </c>
       <c r="D37" t="n">
-        <v>553.7446097969055</v>
+        <v>388.9419274510468</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886983</v>
+        <v>388.9419274510468</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352786</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7126,19 +7126,19 @@
         <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V37" t="n">
-        <v>1577.521461978952</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W37" t="n">
-        <v>1323.958247786482</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X37" t="n">
-        <v>1131.822652732955</v>
+        <v>912.992120371558</v>
       </c>
       <c r="Y37" t="n">
-        <v>946.8840294339157</v>
+        <v>728.0534970725186</v>
       </c>
     </row>
     <row r="38">
@@ -7160,58 +7160,58 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424554</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571341</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285448</v>
+        <v>928.1877967739978</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576954</v>
+        <v>1379.222010022407</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.868354406782</v>
+        <v>1912.753914694331</v>
       </c>
       <c r="N38" t="n">
-        <v>3016.620626633429</v>
+        <v>2459.532731753114</v>
       </c>
       <c r="O38" t="n">
-        <v>3519.593097512766</v>
+        <v>2998.416327470904</v>
       </c>
       <c r="P38" t="n">
-        <v>3914.367463869944</v>
+        <v>3711.771414917849</v>
       </c>
       <c r="Q38" t="n">
-        <v>4162.653825625626</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
         <v>2817.294225360972</v>
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867696</v>
+        <v>632.3873854721148</v>
       </c>
       <c r="C40" t="n">
-        <v>582.2589880867696</v>
+        <v>499.3051583886985</v>
       </c>
       <c r="D40" t="n">
-        <v>467.9963045189245</v>
+        <v>499.3051583886985</v>
       </c>
       <c r="E40" t="n">
-        <v>355.9371667810221</v>
+        <v>499.3051583886985</v>
       </c>
       <c r="F40" t="n">
-        <v>277.9059357976271</v>
+        <v>388.2691667352788</v>
       </c>
       <c r="G40" t="n">
-        <v>146.0570550168367</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,7 +7345,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7354,28 +7354,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2222.643358308828</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.6830325948</v>
+        <v>2066.811429980145</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>1880.898770394162</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978951</v>
+        <v>1627.649859364296</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1408.8193270029</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1155.25611281043</v>
       </c>
       <c r="X40" t="n">
-        <v>912.992120371558</v>
+        <v>963.1205177569034</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725187</v>
+        <v>778.1818944578639</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424555</v>
+        <v>352.457921142455</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>281.0602564399074</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>614.8796301297539</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1065.913843378163</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M41" t="n">
-        <v>2044.464146207991</v>
+        <v>1591.849956248878</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434638</v>
+        <v>2138.628773307661</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313975</v>
+        <v>2998.416327470903</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671153</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
         <v>2463.00884922965</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.6170717285979</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C42" t="n">
-        <v>785.1640424474709</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862197</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E42" t="n">
         <v>476.9921777807642</v>
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>746.6500690399595</v>
+        <v>582.2589880867697</v>
       </c>
       <c r="C43" t="n">
-        <v>613.5678419565432</v>
+        <v>582.2589880867697</v>
       </c>
       <c r="D43" t="n">
-        <v>499.3051583886982</v>
+        <v>467.9963045189246</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886982</v>
+        <v>355.9371667810222</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352785</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544882</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H43" t="n">
         <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,7 +7585,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
@@ -7597,22 +7597,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1995.161453962007</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1741.912542932141</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1523.082010570745</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1269.518796378275</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>1077.383201324748</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.4445780257086</v>
+        <v>728.0534970725188</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529679</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571323</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285447</v>
+        <v>928.1877967739978</v>
       </c>
       <c r="L44" t="n">
-        <v>1471.802653981899</v>
+        <v>1415.133134860859</v>
       </c>
       <c r="M44" t="n">
-        <v>2450.352956811728</v>
+        <v>1948.665039532783</v>
       </c>
       <c r="N44" t="n">
-        <v>2997.13177387051</v>
+        <v>2495.443856591566</v>
       </c>
       <c r="O44" t="n">
-        <v>3500.104244749847</v>
+        <v>2998.416327470903</v>
       </c>
       <c r="P44" t="n">
-        <v>3894.878611107025</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q44" t="n">
-        <v>4143.164972862708</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
         <v>2463.00884922965</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285979</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474709</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862197</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
         <v>476.9921777807642</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>738.0909164154539</v>
+        <v>582.2589880867693</v>
       </c>
       <c r="C46" t="n">
-        <v>605.0086893320379</v>
+        <v>449.176761003353</v>
       </c>
       <c r="D46" t="n">
-        <v>500.3283044731807</v>
+        <v>334.914077435508</v>
       </c>
       <c r="E46" t="n">
-        <v>388.2691667352783</v>
+        <v>334.914077435508</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352783</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544881</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168366</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
         <v>403.9760733218556</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935368</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7825,31 +7825,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2172.514960923484</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1986.602301337501</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1733.353390307635</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1514.522857946238</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1260.959643753769</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>1068.824048700242</v>
+        <v>912.9921203715578</v>
       </c>
       <c r="Y46" t="n">
-        <v>883.8854254012028</v>
+        <v>728.0534970725182</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.32383557664076</v>
+        <v>85.32383557664082</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.06279368686315</v>
+        <v>53.06279368686309</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>285.0508825989998</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704252</v>
+        <v>105.1996354507095</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>189.587381041825</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.3582268324523</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>36.27386347318475</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>7.67251697091875</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.672516970918366</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>360.4192760443486</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>36.27386347318395</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>27.35822683245138</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.09021021309601</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004369</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>77.4175911991879</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.4343166808774</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>235.8432353681611</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>62.95971209989651</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>105.0742887270141</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>68.10750358912667</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>253.0374224903288</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.276391751731467</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>232.6385849595858</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>109.55931871782</v>
       </c>
       <c r="U28" t="n">
-        <v>32.92359802148843</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.96100635757299</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.667976466966905</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.14213605696635</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>53.48757151538322</v>
       </c>
       <c r="E37" t="n">
-        <v>57.04348946639828</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>32.67471306332408</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>49.62711341149235</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>32.6747130633243</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>162.7471701436582</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>9.486475721897774</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>53.48757151538339</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.273609045396</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
+        <v>337519.5188539358</v>
+      </c>
+      <c r="F2" t="n">
+        <v>337519.5188539356</v>
+      </c>
+      <c r="G2" t="n">
+        <v>337519.5188539356</v>
+      </c>
+      <c r="H2" t="n">
+        <v>337519.5188539358</v>
+      </c>
+      <c r="I2" t="n">
         <v>337519.5188539357</v>
-      </c>
-      <c r="F2" t="n">
-        <v>337519.5188539358</v>
-      </c>
-      <c r="G2" t="n">
-        <v>337519.5188539357</v>
-      </c>
-      <c r="H2" t="n">
-        <v>337519.5188539356</v>
-      </c>
-      <c r="I2" t="n">
-        <v>337519.5188539358</v>
       </c>
       <c r="J2" t="n">
         <v>337519.5188539358</v>
       </c>
       <c r="K2" t="n">
+        <v>337519.5188539357</v>
+      </c>
+      <c r="L2" t="n">
         <v>337519.5188539358</v>
       </c>
-      <c r="L2" t="n">
-        <v>337519.5188539356</v>
-      </c>
       <c r="M2" t="n">
-        <v>346151.1578839777</v>
+        <v>346151.1578839778</v>
       </c>
       <c r="N2" t="n">
-        <v>346151.1578839778</v>
+        <v>346151.1578839779</v>
       </c>
       <c r="O2" t="n">
-        <v>346151.1578839778</v>
+        <v>346151.1578839779</v>
       </c>
       <c r="P2" t="n">
-        <v>346151.1578839778</v>
+        <v>346151.1578839779</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394259</v>
+        <v>507203.1428394262</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418131</v>
+        <v>78665.28217418095</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.309604032037948e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410732</v>
+        <v>157829.4001410733</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.9436702219</v>
+        <v>18289.94367022182</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.7911881752</v>
+        <v>123848.791188175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547201</v>
+        <v>232017.77175472</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,19 +26424,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289573</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>28561.83935289576</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289576</v>
@@ -26445,19 +26445,19 @@
         <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501855</v>
+        <v>55718.30868501851</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501855</v>
+        <v>55718.30868501851</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501854</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501864</v>
+        <v>55718.30868501854</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133427</v>
+        <v>77204.68871133428</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26500,13 +26500,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
+        <v>91026.04982123681</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91026.0498212368</v>
+      </c>
+      <c r="O5" t="n">
         <v>91026.04982123678</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91026.04982123678</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91026.04982123677</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-467482.8511131598</v>
+        <v>-467482.8511131601</v>
       </c>
       <c r="C6" t="n">
-        <v>-22504.02350830358</v>
+        <v>-22504.02350830313</v>
       </c>
       <c r="D6" t="n">
-        <v>56161.25866587771</v>
+        <v>56161.25866587777</v>
       </c>
       <c r="E6" t="n">
-        <v>-514803.2527460803</v>
+        <v>-514870.4482363061</v>
       </c>
       <c r="F6" t="n">
-        <v>212574.1612473263</v>
+        <v>212506.9657571004</v>
       </c>
       <c r="G6" t="n">
-        <v>212574.1612473263</v>
+        <v>212506.9657571004</v>
       </c>
       <c r="H6" t="n">
-        <v>212574.1612473262</v>
+        <v>212506.9657571006</v>
       </c>
       <c r="I6" t="n">
-        <v>212574.1612473262</v>
+        <v>212506.9657571005</v>
       </c>
       <c r="J6" t="n">
-        <v>54744.76110625318</v>
+        <v>54677.56561602727</v>
       </c>
       <c r="K6" t="n">
-        <v>194284.2175771045</v>
+        <v>194217.0220868787</v>
       </c>
       <c r="L6" t="n">
-        <v>212574.1612473264</v>
+        <v>212506.9657571006</v>
       </c>
       <c r="M6" t="n">
-        <v>75558.0081895472</v>
+        <v>75541.58704655715</v>
       </c>
       <c r="N6" t="n">
-        <v>199406.7993777224</v>
+        <v>199390.3782347323</v>
       </c>
       <c r="O6" t="n">
-        <v>199406.7993777224</v>
+        <v>199390.3782347323</v>
       </c>
       <c r="P6" t="n">
-        <v>199406.7993777223</v>
+        <v>199390.3782347323</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.75688445008894e-15</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.361316595038541e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688973</v>
+        <v>316.5685789688975</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26826,10 +26826,10 @@
         <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.137005040047435e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688973</v>
+        <v>316.5685789688975</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818942</v>
+        <v>61.17508524818913</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685332</v>
+        <v>71.06533706685298</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685332</v>
+        <v>71.06533706685298</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.029398241354</v>
+        <v>383.0293982413542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.137005040047435e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685332</v>
+        <v>71.06533706685298</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>113.7558656911232</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208645</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866728</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
@@ -27433,16 +27433,16 @@
         <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>258.7824639897347</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.1676007117911</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015526</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>68.46191967008335</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255616</v>
+        <v>52.99928112255613</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273909</v>
+        <v>38.36018782739087</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27594,7 +27594,7 @@
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>105.3205769681662</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.904588403741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>204.7266568041201</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>112.41579080867</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>101.6953328227612</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>5.287435170195636</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>172.7613183932513</v>
+        <v>274.8637695811336</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>74.52286390590163</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.8434812214563</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.096878032288959e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604624</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.4954162860455</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392551</v>
+        <v>1.272637503392552</v>
       </c>
       <c r="H2" t="n">
         <v>13.03339883161897</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954136</v>
+        <v>49.0633573495414</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035636</v>
+        <v>108.0135173035637</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221703</v>
+        <v>161.8842628221704</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166201</v>
+        <v>200.8317428166203</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175774</v>
+        <v>223.4640100175776</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240915</v>
+        <v>227.0798913240917</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497318</v>
+        <v>214.425102149732</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847282</v>
+        <v>183.0068637847283</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944824</v>
+        <v>137.4305331944825</v>
       </c>
       <c r="R2" t="n">
-        <v>79.9423155724824</v>
+        <v>79.94231557248246</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855778</v>
+        <v>29.0002271085578</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100894</v>
+        <v>5.570970671100898</v>
       </c>
       <c r="U2" t="n">
         <v>0.1018110002714041</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.68092109438593</v>
+        <v>0.6809210943859305</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674641</v>
+        <v>6.576264253674646</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986645</v>
+        <v>23.44399381986647</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933035</v>
+        <v>64.33211093933039</v>
       </c>
       <c r="K3" t="n">
         <v>109.9538242631877</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665591</v>
+        <v>147.8464858665592</v>
       </c>
       <c r="M3" t="n">
-        <v>172.529875538049</v>
+        <v>172.5298755380491</v>
       </c>
       <c r="N3" t="n">
-        <v>177.096227964874</v>
+        <v>177.0962279648741</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313752</v>
+        <v>162.0084500313753</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674325</v>
+        <v>130.0260640674327</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915837</v>
+        <v>86.91898039915843</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248784</v>
+        <v>42.27683777248787</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861584</v>
+        <v>12.64781067861585</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739778</v>
+        <v>2.74458984973978</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012699</v>
+        <v>0.04479744042012702</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111262</v>
+        <v>0.5708613719111265</v>
       </c>
       <c r="H4" t="n">
-        <v>5.07547656117347</v>
+        <v>5.075476561173475</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801824</v>
+        <v>17.16735834801825</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411662</v>
+        <v>40.35989899411665</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840173</v>
+        <v>66.32371211840179</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566778</v>
+        <v>84.87151705667787</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148679</v>
+        <v>89.48511487148686</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890903</v>
+        <v>87.35735884890909</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009521993</v>
+        <v>80.68866009521999</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823291</v>
+        <v>69.04308810823295</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430349</v>
+        <v>47.80185542430352</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065845</v>
+        <v>25.66800314065847</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760259</v>
+        <v>9.948556817760267</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711175</v>
+        <v>2.439134952711177</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333419</v>
+        <v>0.03113789301333421</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.0642279489511</v>
+        <v>96.06422794895117</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483545</v>
+        <v>265.9398243483546</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970833</v>
+        <v>382.7265423970834</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831372</v>
+        <v>442.6313102831373</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394847</v>
+        <v>435.013752139485</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907905</v>
+        <v>365.1270719907906</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009413</v>
+        <v>273.5725762009414</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799376</v>
+        <v>127.4398339799377</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22.81831984930441</v>
+        <v>22.81831984930451</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014072</v>
+        <v>236.5776223014074</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901441</v>
+        <v>380.1324513901442</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660306</v>
+        <v>496.1009053660307</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250942</v>
+        <v>525.0968902250943</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636603</v>
+        <v>413.2745248636604</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930395</v>
+        <v>314.5144252930396</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251888</v>
+        <v>44.05422029251893</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169939</v>
+        <v>112.461542316994</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333274</v>
+        <v>129.0689918333275</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281376</v>
+        <v>131.4895312281377</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092596</v>
+        <v>105.2737880092597</v>
       </c>
       <c r="P4" t="n">
-        <v>66.3216473731264</v>
+        <v>66.32164737312644</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>793.1038834872188</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>571.2615849349731</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357551</v>
+        <v>295.9866364194221</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,22 +36364,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>682.0775889879218</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36832,7 +36832,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306623</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37245,7 +37245,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>588.349367261197</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>86.97142537467708</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37467,7 +37467,7 @@
         <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795296</v>
@@ -37482,7 +37482,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>544.3268643614039</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>67.28571551314353</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>198.4595179396309</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37786,19 +37786,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>868.4722769325678</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -37947,7 +37947,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
         <v>337.8485465086856</v>
@@ -37956,7 +37956,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>491.8639778655161</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>86.97142537467616</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
